--- a/outcome/appendix/data/forecast/Malaria.xlsx
+++ b/outcome/appendix/data/forecast/Malaria.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">upper_95</t>
   </si>
   <si>
-    <t xml:space="preserve">disease_1</t>
+    <t xml:space="preserve">disease_en</t>
   </si>
   <si>
     <t xml:space="preserve">value</t>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">color</t>
   </si>
   <si>
-    <t xml:space="preserve">疟疾</t>
+    <t xml:space="preserve">Malaria</t>
   </si>
   <si>
     <t xml:space="preserve">Increase</t>
@@ -427,12 +427,20 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>230.052131557668</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
+        <v>274.670305538519</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-85.4665532294599</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-276.111490269026</v>
+      </c>
+      <c r="E2" t="n">
+        <v>634.807164306497</v>
+      </c>
+      <c r="F2" t="n">
+        <v>825.452101346064</v>
+      </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
@@ -440,7 +448,7 @@
         <v>348</v>
       </c>
       <c r="I2" t="n">
-        <v>-117.947868442332</v>
+        <v>-73.3296944614814</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -451,12 +459,20 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>227.048151578592</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
+        <v>243.802815763074</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-265.507614217045</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-535.120269776165</v>
+      </c>
+      <c r="E3" t="n">
+        <v>753.113245743193</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1022.72590130231</v>
+      </c>
       <c r="G3" t="s">
         <v>10</v>
       </c>
@@ -464,7 +480,7 @@
         <v>126</v>
       </c>
       <c r="I3" t="n">
-        <v>101.048151578592</v>
+        <v>117.802815763074</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
@@ -475,12 +491,20 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>225.85999235136</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
+        <v>192.627766924836</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-431.14757013956</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-761.354287297858</v>
+      </c>
+      <c r="E4" t="n">
+        <v>816.403103989232</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1146.60982114753</v>
+      </c>
       <c r="G4" t="s">
         <v>10</v>
       </c>
@@ -488,7 +512,7 @@
         <v>92</v>
       </c>
       <c r="I4" t="n">
-        <v>133.85999235136</v>
+        <v>100.627766924836</v>
       </c>
       <c r="J4" t="s">
         <v>12</v>
@@ -499,12 +523,20 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>220.157366219144</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
+        <v>199.12618582493</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-521.147531711027</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-902.43740579016</v>
+      </c>
+      <c r="E5" t="n">
+        <v>919.399903360887</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1300.68977744002</v>
+      </c>
       <c r="G5" t="s">
         <v>10</v>
       </c>
@@ -512,7 +544,7 @@
         <v>54</v>
       </c>
       <c r="I5" t="n">
-        <v>166.157366219144</v>
+        <v>145.12618582493</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -523,12 +555,20 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>222.113258951209</v>
-      </c>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
+        <v>215.372233075164</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-589.918264333277</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-1016.21330311991</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1020.66273048361</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1446.95776927024</v>
+      </c>
       <c r="G6" t="s">
         <v>10</v>
       </c>
@@ -536,7 +576,7 @@
         <v>40</v>
       </c>
       <c r="I6" t="n">
-        <v>182.113258951209</v>
+        <v>175.372233075164</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -547,12 +587,20 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>229.692133407892</v>
-      </c>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
+        <v>244.615118125585</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-637.536423424732</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-1104.51924121669</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1126.7666596759</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1593.74947746787</v>
+      </c>
       <c r="G7" t="s">
         <v>10</v>
       </c>
@@ -560,7 +608,7 @@
         <v>74</v>
       </c>
       <c r="I7" t="n">
-        <v>155.692133407892</v>
+        <v>170.615118125585</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -571,12 +619,20 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>247.521354008609</v>
-      </c>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
+        <v>268.984189000937</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-683.848377247126</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-1188.24746936738</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1221.816755249</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1726.21584736926</v>
+      </c>
       <c r="G8" t="s">
         <v>10</v>
       </c>
@@ -584,7 +640,7 @@
         <v>57</v>
       </c>
       <c r="I8" t="n">
-        <v>190.521354008609</v>
+        <v>211.984189000937</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
@@ -595,20 +651,28 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>234.45489653718</v>
-      </c>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
+        <v>240.553606313027</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-778.067253647211</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-1317.29256476545</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1259.17446627327</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1798.3997773915</v>
+      </c>
       <c r="G9" t="s">
         <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I9" t="n">
-        <v>180.45489653718</v>
+        <v>183.553606313027</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -619,12 +683,20 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>241.304368979913</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
+        <v>235.679792137957</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-844.730784165979</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-1416.66559528468</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1316.09036844189</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1888.02517956059</v>
+      </c>
       <c r="G10" t="s">
         <v>10</v>
       </c>
@@ -632,7 +704,7 @@
         <v>81</v>
       </c>
       <c r="I10" t="n">
-        <v>160.304368979913</v>
+        <v>154.679792137957</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -643,12 +715,20 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>226.857025747402</v>
-      </c>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
+        <v>219.433744887722</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-919.418998197471</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-1522.2912236219</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1358.28648797292</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1961.15871339734</v>
+      </c>
       <c r="G11" t="s">
         <v>10</v>
       </c>
@@ -656,7 +736,7 @@
         <v>78</v>
       </c>
       <c r="I11" t="n">
-        <v>148.857025747402</v>
+        <v>141.433744887722</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -667,12 +747,20 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>233.721126190067</v>
-      </c>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
+        <v>266.547281913401</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-927.891551797198</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-1560.18927613837</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1460.986115624</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2093.28383996517</v>
+      </c>
       <c r="G12" t="s">
         <v>10</v>
       </c>
@@ -680,7 +768,7 @@
         <v>63</v>
       </c>
       <c r="I12" t="n">
-        <v>170.721126190067</v>
+        <v>203.547281913401</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -691,12 +779,20 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>228.109602864788</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
+        <v>222.682954337769</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-1024.86771979102</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-1685.28115410762</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1470.23362846656</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2130.64706278316</v>
+      </c>
       <c r="G13" t="s">
         <v>10</v>
       </c>
@@ -704,7 +800,7 @@
         <v>73</v>
       </c>
       <c r="I13" t="n">
-        <v>155.109602864788</v>
+        <v>149.682954337769</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -715,12 +811,20 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>231.8419506916</v>
-      </c>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
+        <v>280.088610486132</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-1127.87793534163</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-1873.21040256372</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1688.0551563139</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2433.38762353599</v>
+      </c>
       <c r="G14" t="s">
         <v>10</v>
       </c>
@@ -728,7 +832,7 @@
         <v>68</v>
       </c>
       <c r="I14" t="n">
-        <v>163.8419506916</v>
+        <v>212.088610486132</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -739,12 +843,20 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>232.205722102806</v>
-      </c>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
+        <v>255.014875616732</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-1296.87329813199</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-2118.39327303515</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1806.90304936545</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2628.42302426861</v>
+      </c>
       <c r="G15" t="s">
         <v>10</v>
       </c>
@@ -752,7 +864,7 @@
         <v>58</v>
       </c>
       <c r="I15" t="n">
-        <v>174.205722102806</v>
+        <v>197.014875616732</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -763,12 +875,20 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>232.633933883709</v>
-      </c>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
+        <v>213.44526254378</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-1470.10575048556</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-2361.32382235933</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1896.99627557312</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2788.21434744689</v>
+      </c>
       <c r="G16" t="s">
         <v>10</v>
       </c>
@@ -776,7 +896,7 @@
         <v>63</v>
       </c>
       <c r="I16" t="n">
-        <v>169.633933883709</v>
+        <v>150.44526254378</v>
       </c>
       <c r="J16" t="s">
         <v>12</v>
@@ -787,12 +907,20 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>228.37358951553</v>
-      </c>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
+        <v>218.723943568917</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-1586.9147586977</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-2542.76214929095</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2024.36264583553</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2980.21003642879</v>
+      </c>
       <c r="G17" t="s">
         <v>10</v>
       </c>
@@ -800,7 +928,7 @@
         <v>74</v>
       </c>
       <c r="I17" t="n">
-        <v>154.37358951553</v>
+        <v>144.723943568917</v>
       </c>
       <c r="J17" t="s">
         <v>12</v>
@@ -811,12 +939,20 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>230.199408056702</v>
-      </c>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
+        <v>231.920646131759</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-1688.05806020174</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-2704.43339273075</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2151.89935246525</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3168.27468499426</v>
+      </c>
       <c r="G18" t="s">
         <v>10</v>
       </c>
@@ -824,7 +960,7 @@
         <v>97</v>
       </c>
       <c r="I18" t="n">
-        <v>133.199408056702</v>
+        <v>134.920646131759</v>
       </c>
       <c r="J18" t="s">
         <v>12</v>
@@ -835,12 +971,20 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>229.389733062742</v>
-      </c>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
+        <v>255.674710744874</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-1772.20727359864</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-2845.70315111424</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2283.55669508839</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3357.05257260399</v>
+      </c>
       <c r="G19" t="s">
         <v>10</v>
       </c>
@@ -848,7 +992,7 @@
         <v>109</v>
       </c>
       <c r="I19" t="n">
-        <v>120.389733062742</v>
+        <v>146.674710744874</v>
       </c>
       <c r="J19" t="s">
         <v>12</v>
@@ -859,12 +1003,20 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>236.555265728961</v>
-      </c>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
+        <v>275.469764589137</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-1854.85707701897</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-2982.58398612086</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2405.79660619724</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3533.52351529913</v>
+      </c>
       <c r="G20" t="s">
         <v>10</v>
       </c>
@@ -872,7 +1024,7 @@
         <v>92</v>
       </c>
       <c r="I20" t="n">
-        <v>144.555265728961</v>
+        <v>183.469764589137</v>
       </c>
       <c r="J20" t="s">
         <v>12</v>
@@ -883,12 +1035,20 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>235.409950213816</v>
-      </c>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
+        <v>252.375535104164</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1975.69079284187</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-3155.15786062377</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2480.4418630502</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3659.9089308321</v>
+      </c>
       <c r="G21" t="s">
         <v>10</v>
       </c>
@@ -896,7 +1056,7 @@
         <v>60</v>
       </c>
       <c r="I21" t="n">
-        <v>175.409950213816</v>
+        <v>192.375535104164</v>
       </c>
       <c r="J21" t="s">
         <v>12</v>
@@ -907,12 +1067,20 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>237.72723334921</v>
-      </c>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
+        <v>248.416524335311</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-2073.27825995006</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-3302.30923858793</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2570.11130862068</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3799.14228725855</v>
+      </c>
       <c r="G22" t="s">
         <v>10</v>
       </c>
@@ -920,7 +1088,7 @@
         <v>49</v>
       </c>
       <c r="I22" t="n">
-        <v>188.72723334921</v>
+        <v>199.416524335311</v>
       </c>
       <c r="J22" t="s">
         <v>12</v>
@@ -931,12 +1099,20 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>233.990964791944</v>
-      </c>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
+        <v>235.219821772469</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-2176.47124074546</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-3453.14337129468</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2646.9108842904</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3923.58301483961</v>
+      </c>
       <c r="G23" t="s">
         <v>10</v>
       </c>
@@ -944,7 +1120,7 @@
         <v>46</v>
       </c>
       <c r="I23" t="n">
-        <v>187.990964791944</v>
+        <v>189.219821772469</v>
       </c>
       <c r="J23" t="s">
         <v>12</v>
@@ -955,12 +1131,20 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>233.280495615264</v>
-      </c>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
+        <v>273.490259204711</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-2224.95743700184</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-3547.55575523402</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2771.93795541127</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4094.53627364344</v>
+      </c>
       <c r="G24" t="s">
         <v>10</v>
       </c>
@@ -968,7 +1152,7 @@
         <v>62</v>
       </c>
       <c r="I24" t="n">
-        <v>171.280495615264</v>
+        <v>211.490259204711</v>
       </c>
       <c r="J24" t="s">
         <v>12</v>
@@ -979,12 +1163,20 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>231.438740932306</v>
-      </c>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
+        <v>237.859162285038</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-2344.43206844995</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-3711.41447282102</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2820.15039302002</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4187.13279739109</v>
+      </c>
       <c r="G25" t="s">
         <v>10</v>
       </c>
@@ -992,7 +1184,7 @@
         <v>72</v>
       </c>
       <c r="I25" t="n">
-        <v>159.438740932306</v>
+        <v>165.859162285038</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1003,12 +1195,20 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>232.376460345496</v>
-      </c>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
+        <v>284.489912395888</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-2446.97050889374</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-3892.91831280436</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3015.95033368551</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4461.89813759613</v>
+      </c>
       <c r="G26" t="s">
         <v>10</v>
       </c>
@@ -1016,7 +1216,7 @@
         <v>26</v>
       </c>
       <c r="I26" t="n">
-        <v>206.376460345496</v>
+        <v>258.489912395888</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1027,12 +1227,20 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>232.41328367351</v>
-      </c>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
+        <v>264.122458324482</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-2608.77226056317</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-4129.59085901855</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3137.01717721214</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4657.83577566752</v>
+      </c>
       <c r="G27" t="s">
         <v>10</v>
       </c>
@@ -1040,7 +1248,7 @@
         <v>30</v>
       </c>
       <c r="I27" t="n">
-        <v>202.41328367351</v>
+        <v>234.122458324482</v>
       </c>
       <c r="J27" t="s">
         <v>12</v>
@@ -1051,12 +1259,20 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>233.49519712826</v>
-      </c>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
+        <v>230.355363416625</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-2777.33014184377</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-4369.50267243887</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3238.04086867702</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4830.21339927212</v>
+      </c>
       <c r="G28" t="s">
         <v>10</v>
       </c>
@@ -1064,7 +1280,7 @@
         <v>31</v>
       </c>
       <c r="I28" t="n">
-        <v>202.49519712826</v>
+        <v>199.355363416625</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1075,12 +1291,20 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>231.777077550095</v>
-      </c>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
+        <v>234.643248484289</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-2902.04610994672</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-4562.50915529144</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3371.3326069153</v>
+      </c>
+      <c r="F29" t="n">
+        <v>5031.79565226002</v>
+      </c>
       <c r="G29" t="s">
         <v>10</v>
       </c>
@@ -1088,7 +1312,7 @@
         <v>34</v>
       </c>
       <c r="I29" t="n">
-        <v>197.777077550095</v>
+        <v>200.643248484289</v>
       </c>
       <c r="J29" t="s">
         <v>12</v>
@@ -1099,12 +1323,20 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>232.077656994851</v>
-      </c>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
+        <v>245.36296115345</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-3015.23026156466</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-4741.28405062492</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3505.95618387156</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5232.00997293182</v>
+      </c>
       <c r="G30" t="s">
         <v>10</v>
       </c>
@@ -1112,7 +1344,7 @@
         <v>37</v>
       </c>
       <c r="I30" t="n">
-        <v>195.077656994851</v>
+        <v>208.36296115345</v>
       </c>
       <c r="J30" t="s">
         <v>12</v>
@@ -1123,12 +1355,20 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>231.221362513494</v>
-      </c>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
+        <v>264.65844395794</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-3115.2995730559</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-4904.54126732281</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3644.61646097178</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5433.85815523869</v>
+      </c>
       <c r="G31" t="s">
         <v>10</v>
       </c>
@@ -1136,7 +1376,7 @@
         <v>62</v>
       </c>
       <c r="I31" t="n">
-        <v>169.221362513494</v>
+        <v>202.65844395794</v>
       </c>
       <c r="J31" t="s">
         <v>12</v>
@@ -1147,12 +1387,20 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>233.176440911194</v>
-      </c>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
+        <v>280.738012961681</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-3214.5107949942</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-5064.78374736554</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3775.98682091756</v>
+      </c>
+      <c r="F32" t="n">
+        <v>5626.25977328891</v>
+      </c>
       <c r="G32" t="s">
         <v>10</v>
       </c>
@@ -1160,7 +1408,7 @@
         <v>79</v>
       </c>
       <c r="I32" t="n">
-        <v>154.176440911194</v>
+        <v>201.738012961681</v>
       </c>
       <c r="J32" t="s">
         <v>12</v>
@@ -1171,12 +1419,20 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>233.851522856042</v>
-      </c>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
+        <v>261.97851579065</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-3344.87776943308</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-5254.23215142999</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3868.83480101438</v>
+      </c>
+      <c r="F33" t="n">
+        <v>5778.18918301129</v>
+      </c>
       <c r="G33" t="s">
         <v>10</v>
       </c>
@@ -1184,7 +1440,7 @@
         <v>217</v>
       </c>
       <c r="I33" t="n">
-        <v>16.8515228560419</v>
+        <v>44.9785157906497</v>
       </c>
       <c r="J33" t="s">
         <v>12</v>
@@ -1195,12 +1451,20 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>235.059182473598</v>
-      </c>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
+        <v>258.762601989901</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-3456.34981824704</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-5423.01153644482</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3973.87502222684</v>
+      </c>
+      <c r="F34" t="n">
+        <v>5940.53674042462</v>
+      </c>
       <c r="G34" t="s">
         <v>10</v>
       </c>
@@ -1208,7 +1472,7 @@
         <v>96</v>
       </c>
       <c r="I34" t="n">
-        <v>139.059182473598</v>
+        <v>162.762601989901</v>
       </c>
       <c r="J34" t="s">
         <v>12</v>
@@ -1219,12 +1483,20 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>234.444572922251</v>
-      </c>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
+        <v>248.042889320741</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-3572.25923587037</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-5594.6050202501</v>
+      </c>
+      <c r="E35" t="n">
+        <v>4068.34501451185</v>
+      </c>
+      <c r="F35" t="n">
+        <v>6090.69079889158</v>
+      </c>
       <c r="G35" t="s">
         <v>10</v>
       </c>
@@ -1232,7 +1504,7 @@
         <v>92</v>
       </c>
       <c r="I35" t="n">
-        <v>142.444572922251</v>
+        <v>156.042889320741</v>
       </c>
       <c r="J35" t="s">
         <v>12</v>
@@ -1243,12 +1515,20 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>233.876899369784</v>
-      </c>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
+        <v>279.130056061307</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-3643.54203837643</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-5720.07921102042</v>
+      </c>
+      <c r="E36" t="n">
+        <v>4201.80215049905</v>
+      </c>
+      <c r="F36" t="n">
+        <v>6278.33932314304</v>
+      </c>
       <c r="G36" t="s">
         <v>10</v>
       </c>
@@ -1256,7 +1536,7 @@
         <v>74</v>
       </c>
       <c r="I36" t="n">
-        <v>159.876899369784</v>
+        <v>205.130056061307</v>
       </c>
       <c r="J36" t="s">
         <v>12</v>
@@ -1267,12 +1547,20 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>232.735534210309</v>
-      </c>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
+        <v>250.186831854573</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-3772.25078645866</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-5901.60063726903</v>
+      </c>
+      <c r="E37" t="n">
+        <v>4272.62445016781</v>
+      </c>
+      <c r="F37" t="n">
+        <v>6401.97430097818</v>
+      </c>
       <c r="G37" t="s">
         <v>10</v>
       </c>
@@ -1280,7 +1568,7 @@
         <v>79</v>
       </c>
       <c r="I37" t="n">
-        <v>153.735534210309</v>
+        <v>171.186831854573</v>
       </c>
       <c r="J37" t="s">
         <v>12</v>
@@ -1291,12 +1579,20 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>232.738432774174</v>
-      </c>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
+        <v>288.065100335309</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-3877.70269319867</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-6082.92695554333</v>
+      </c>
+      <c r="E38" t="n">
+        <v>4453.83289386929</v>
+      </c>
+      <c r="F38" t="n">
+        <v>6659.05715621395</v>
+      </c>
       <c r="G38" t="s">
         <v>10</v>
       </c>
@@ -1304,7 +1600,7 @@
         <v>149</v>
       </c>
       <c r="I38" t="n">
-        <v>83.7384327741744</v>
+        <v>139.065100335309</v>
       </c>
       <c r="J38" t="s">
         <v>12</v>
@@ -1315,12 +1611,20 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>232.594890354669</v>
-      </c>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
+        <v>271.520569274758</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-4032.80727907374</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-6311.3808037424</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4575.84841762326</v>
+      </c>
+      <c r="F39" t="n">
+        <v>6854.42194229192</v>
+      </c>
       <c r="G39" t="s">
         <v>10</v>
       </c>
@@ -1328,7 +1632,7 @@
         <v>117</v>
       </c>
       <c r="I39" t="n">
-        <v>115.594890354669</v>
+        <v>154.520569274758</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1339,12 +1643,20 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>233.187113575915</v>
-      </c>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
+        <v>244.091478305948</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-4194.47305794808</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-6544.10719274616</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4682.65601455997</v>
+      </c>
+      <c r="F40" t="n">
+        <v>7032.29014935806</v>
+      </c>
       <c r="G40" t="s">
         <v>10</v>
       </c>
@@ -1352,9 +1664,297 @@
         <v>138</v>
       </c>
       <c r="I40" t="n">
-        <v>95.1871135759146</v>
+        <v>106.091478305948</v>
       </c>
       <c r="J40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B41" t="n">
+        <v>247.574537476591</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-4321.28440748061</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-6739.89223585952</v>
+      </c>
+      <c r="E41" t="n">
+        <v>4816.43348243379</v>
+      </c>
+      <c r="F41" t="n">
+        <v>7235.0413108127</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" t="n">
+        <v>189</v>
+      </c>
+      <c r="I41" t="n">
+        <v>58.5745374765909</v>
+      </c>
+      <c r="J41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B42" t="n">
+        <v>256.282185403197</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-4439.25707812542</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-6924.92541633613</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4951.82144893182</v>
+      </c>
+      <c r="F42" t="n">
+        <v>7437.48978714252</v>
+      </c>
+      <c r="G42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" t="n">
+        <v>212</v>
+      </c>
+      <c r="I42" t="n">
+        <v>44.282185403197</v>
+      </c>
+      <c r="J42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B43" t="n">
+        <v>271.955951671088</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-4546.93457331102</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-7097.90112496759</v>
+      </c>
+      <c r="E43" t="n">
+        <v>5090.8464766532</v>
+      </c>
+      <c r="F43" t="n">
+        <v>7641.81302830976</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" t="n">
+        <v>264</v>
+      </c>
+      <c r="I43" t="n">
+        <v>7.95595167108797</v>
+      </c>
+      <c r="J43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B44" t="n">
+        <v>285.017423560997</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-4654.14473293739</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-7268.77924042749</v>
+      </c>
+      <c r="E44" t="n">
+        <v>5224.17958005939</v>
+      </c>
+      <c r="F44" t="n">
+        <v>7838.81408754949</v>
+      </c>
+      <c r="G44" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" t="n">
+        <v>289</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-3.98257643900291</v>
+      </c>
+      <c r="J44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B45" t="n">
+        <v>269.779039689436</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-4786.79487202285</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-7463.58340828144</v>
+      </c>
+      <c r="E45" t="n">
+        <v>5326.35295140173</v>
+      </c>
+      <c r="F45" t="n">
+        <v>8003.14148766031</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" t="n">
+        <v>234</v>
+      </c>
+      <c r="I45" t="n">
+        <v>35.7790396894364</v>
+      </c>
+      <c r="J45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B46" t="n">
+        <v>267.166745311455</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-4904.15384434771</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-7641.68560269003</v>
+      </c>
+      <c r="E46" t="n">
+        <v>5438.48733497062</v>
+      </c>
+      <c r="F46" t="n">
+        <v>8176.01909331294</v>
+      </c>
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" t="n">
+        <v>193</v>
+      </c>
+      <c r="I46" t="n">
+        <v>74.1667453114546</v>
+      </c>
+      <c r="J46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B47" t="n">
+        <v>258.459097384849</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-5025.11673319204</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-7822.07282652283</v>
+      </c>
+      <c r="E47" t="n">
+        <v>5542.03492796174</v>
+      </c>
+      <c r="F47" t="n">
+        <v>8338.99102129253</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" t="n">
+        <v>193</v>
+      </c>
+      <c r="I47" t="n">
+        <v>65.4590973848485</v>
+      </c>
+      <c r="J47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B48" t="n">
+        <v>283.711276372006</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-5109.78392376304</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-7964.92781647801</v>
+      </c>
+      <c r="E48" t="n">
+        <v>5677.20647650705</v>
+      </c>
+      <c r="F48" t="n">
+        <v>8532.35036922203</v>
+      </c>
+      <c r="G48" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" t="n">
+        <v>183</v>
+      </c>
+      <c r="I48" t="n">
+        <v>100.711276372006</v>
+      </c>
+      <c r="J48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B49" t="n">
+        <v>260.20062697017</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-5241.01809166875</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-8153.18737043587</v>
+      </c>
+      <c r="E49" t="n">
+        <v>5761.41934560909</v>
+      </c>
+      <c r="F49" t="n">
+        <v>8673.58862437621</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" t="n">
+        <v>245</v>
+      </c>
+      <c r="I49" t="n">
+        <v>15.2006269701698</v>
+      </c>
+      <c r="J49" t="s">
         <v>12</v>
       </c>
     </row>
